--- a/Outputs/final/exportacoes_usa_2024_isic_agrupado.xlsx
+++ b/Outputs/final/exportacoes_usa_2024_isic_agrupado.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,16 +478,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Exclusão Ordem 30/07</t>
+          <t>Ordem 30/07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adicional de até 10%</t>
+          <t>Tarifa de 10+40%</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -506,22 +506,22 @@
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>1400116</v>
+        <v>2160136481</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Exclusão Ordem 30/07</t>
+          <t>Ordem 30/07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adicional de até 10%</t>
+          <t>Tarifa de 10+40%</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -530,32 +530,32 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>060</t>
+          <t>014</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Extração de petróleo e gás natural</t>
+          <t>Produção de sementes e mudas certificadas</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>5830985624</v>
+        <v>2579602</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Exclusão Ordem 30/07</t>
+          <t>Ordem 30/07</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adicional de até 10%</t>
+          <t>Tarifa de 10+40%</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -564,32 +564,32 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>071</t>
+          <t>015</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Extração de minério de ferro</t>
+          <t>Pecuária</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>392465778</v>
+        <v>83898831</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Exclusão Ordem 30/07</t>
+          <t>Ordem 30/07</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Adicional de até 10%</t>
+          <t>Tarifa de 10+40%</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -598,32 +598,32 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>089</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Extração de outros minerais não-metálicos</t>
+          <t>Produção florestal</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>719709</v>
+        <v>4769078</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Exclusão Ordem 30/07</t>
+          <t>Ordem 30/07</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Adicional de até 10%</t>
+          <t>Tarifa de 10+40%</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -632,32 +632,32 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>031</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fabricação de conservas de frutas, legumes e outros vegetais</t>
+          <t>Pesca</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>825760552</v>
+        <v>55567213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Exclusão Ordem 30/07</t>
+          <t>Ordem 30/07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Adicional de até 10%</t>
+          <t>Tarifa de 10+40%</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -666,32 +666,32 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>032</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fabricação de produtos têxteis</t>
+          <t>Aqüicultura</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>11459120</v>
+        <v>1876366</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Exclusão Ordem 30/07</t>
+          <t>Ordem 30/07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Adicional de até 10%</t>
+          <t>Tarifa de 10+40%</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -700,32 +700,32 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>072</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Desdobramento de madeira</t>
+          <t>Extração de minerais metálicos não-ferrosos</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>11073956</v>
+        <v>5069318</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Exclusão Ordem 30/07</t>
+          <t>Ordem 30/07</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Adicional de até 10%</t>
+          <t>Tarifa de 10+40%</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -734,32 +734,32 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>081</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fabricação de celulose, papel e produtos de papel</t>
+          <t>Extração de pedra, areia e argila</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>1673978251</v>
+        <v>19879048</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Exclusão Ordem 30/07</t>
+          <t>Ordem 30/07</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Adicional de até 10%</t>
+          <t>Tarifa de 10+40%</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -768,32 +768,32 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>089</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fabricação de produtos derivados do petróleo</t>
+          <t>Extração de outros minerais não-metálicos</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>1806207993</v>
+        <v>37551027</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Exclusão Ordem 30/07</t>
+          <t>Ordem 30/07</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Adicional de até 10%</t>
+          <t>Tarifa de 10+40%</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -802,32 +802,32 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fabricação de produtos químicos</t>
+          <t>Fabricação de produtos alimentícios</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>311208505</v>
+        <v>1152987507</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Exclusão Ordem 30/07</t>
+          <t>Ordem 30/07</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Adicional de até 10%</t>
+          <t>Tarifa de 10+40%</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -836,32 +836,32 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>101</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fabricação de produtos de minerais não-metálicos</t>
+          <t>Abate e fabricação de produtos de carne</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>414252285</v>
+        <v>1576071216</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Exclusão Ordem 30/07</t>
+          <t>Ordem 30/07</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Adicional de até 10%</t>
+          <t>Tarifa de 10+40%</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -870,32 +870,32 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>102</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Metalurgia</t>
+          <t>Preservação do pescado e fabricação de produtos do pescado</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>1677630201</v>
+        <v>175826793</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Exclusão Ordem 30/07</t>
+          <t>Ordem 30/07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Adicional de até 10%</t>
+          <t>Tarifa de 10+40%</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -904,17 +904,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>103</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Metalurgia dos metais não-ferrosos</t>
+          <t>Fabricação de conservas de frutas, legumes e outros vegetais</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>562334899</v>
+        <v>420392828</v>
       </c>
     </row>
     <row r="15">
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -938,17 +938,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>104</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Agricultura, pecuária e serviços relacionados</t>
+          <t>Fabricação de óleos e gorduras vegetais e animais</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>2160136481</v>
+        <v>345411513</v>
       </c>
     </row>
     <row r="16">
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -972,17 +972,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>014</t>
+          <t>105</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Produção de sementes e mudas certificadas</t>
+          <t>Laticínios</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>2579602</v>
+        <v>49804526</v>
       </c>
     </row>
     <row r="17">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1006,17 +1006,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>015</t>
+          <t>106</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Pecuária</t>
+          <t>Moagem, fabricação de produtos amiláceos e de alimentos para animais</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>83898831</v>
+        <v>97307636</v>
       </c>
     </row>
     <row r="18">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1040,17 +1040,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Produção florestal</t>
+          <t>Fabricação de bebidas</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>4769078</v>
+        <v>23514531</v>
       </c>
     </row>
     <row r="19">
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1074,17 +1074,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>031</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Pesca</t>
+          <t>Fabricação de produtos do fumo</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>55567213</v>
+        <v>246593662</v>
       </c>
     </row>
     <row r="20">
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1108,17 +1108,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>032</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Aqüicultura</t>
+          <t>Fabricação de produtos têxteis</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>1876366</v>
+        <v>34115147</v>
       </c>
     </row>
     <row r="21">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1142,17 +1142,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>072</t>
+          <t>141</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Extração de minerais metálicos não-ferrosos</t>
+          <t>Confecção de artigos do vestuário e acessórios</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>5069318</v>
+        <v>21902376</v>
       </c>
     </row>
     <row r="22">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1176,17 +1176,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>081</t>
+          <t>142</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Extração de pedra, areia e argila</t>
+          <t>Fabricação de artigos de malharia e tricotagem</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>19879048</v>
+        <v>3697090</v>
       </c>
     </row>
     <row r="23">
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1210,17 +1210,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>089</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Extração de outros minerais não-metálicos</t>
+          <t>Preparação de couros e fabricação de artefatos de couro, artigos para viagem e calçados</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>37551027</v>
+        <v>406143700</v>
       </c>
     </row>
     <row r="24">
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1244,17 +1244,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>161</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Fabricação de produtos alimentícios</t>
+          <t>Desdobramento de madeira</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>1152987507</v>
+        <v>726327260</v>
       </c>
     </row>
     <row r="25">
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1278,17 +1278,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>162</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Abate e fabricação de produtos de carne</t>
+          <t>Fabricação de produtos de madeira, cortiça e material trançado, exceto móveis</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>1576071216</v>
+        <v>846087444</v>
       </c>
     </row>
     <row r="26">
@@ -1303,7 +1303,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1312,17 +1312,21 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>162</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Preservação do pescado e fabricação de produtos do pescado</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>Fabricação de produtos de madeira, cortiça e material trançado, exceto móveis</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="H26" t="n">
-        <v>175826793</v>
+        <v>10095</v>
       </c>
     </row>
     <row r="27">
@@ -1337,7 +1341,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1346,17 +1350,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Fabricação de conservas de frutas, legumes e outros vegetais</t>
+          <t>Fabricação de celulose, papel e produtos de papel</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>420392828</v>
+        <v>265729188</v>
       </c>
     </row>
     <row r="28">
@@ -1371,7 +1375,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1380,17 +1384,21 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Fabricação de óleos e gorduras vegetais e animais</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>Fabricação de celulose, papel e produtos de papel</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="H28" t="n">
-        <v>345411513</v>
+        <v>1122289</v>
       </c>
     </row>
     <row r="29">
@@ -1405,7 +1413,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1414,17 +1422,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Laticínios</t>
+          <t>Impressão e reprodução de gravações</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>49804526</v>
+        <v>69860</v>
       </c>
     </row>
     <row r="30">
@@ -1439,7 +1447,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1448,17 +1456,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Moagem, fabricação de produtos amiláceos e de alimentos para animais</t>
+          <t>Fabricação de produtos químicos</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>97307636</v>
+        <v>1708012221</v>
       </c>
     </row>
     <row r="31">
@@ -1473,7 +1481,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1482,17 +1490,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>204</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Fabricação de bebidas</t>
+          <t>Fabricação de fibras artificiais e sintéticas</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>23514531</v>
+        <v>973656</v>
       </c>
     </row>
     <row r="32">
@@ -1507,7 +1515,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1516,17 +1524,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Fabricação de produtos do fumo</t>
+          <t>Fabricação de produtos farmoquímicos e farmacêuticos</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>246593662</v>
+        <v>167485853</v>
       </c>
     </row>
     <row r="33">
@@ -1541,7 +1549,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1550,17 +1558,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>221</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Fabricação de produtos têxteis</t>
+          <t>Fabricação de produtos de borracha</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>34115147</v>
+        <v>410264949</v>
       </c>
     </row>
     <row r="34">
@@ -1575,7 +1583,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1584,17 +1592,21 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>221</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Confecção de artigos do vestuário e acessórios</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>Fabricação de produtos de borracha</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="H34" t="n">
-        <v>21902376</v>
+        <v>31566259</v>
       </c>
     </row>
     <row r="35">
@@ -1609,7 +1621,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1618,17 +1630,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>222</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Fabricação de artigos de malharia e tricotagem</t>
+          <t>Fabricação de produtos de material plástico</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>3697090</v>
+        <v>103016827</v>
       </c>
     </row>
     <row r="36">
@@ -1643,7 +1655,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1652,17 +1664,21 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>222</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Preparação de couros e fabricação de artefatos de couro, artigos para viagem e calçados</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>Fabricação de produtos de material plástico</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="H36" t="n">
-        <v>406143700</v>
+        <v>25120646</v>
       </c>
     </row>
     <row r="37">
@@ -1677,7 +1693,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1686,17 +1702,17 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Desdobramento de madeira</t>
+          <t>Fabricação de produtos de minerais não-metálicos</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>726327260</v>
+        <v>507250349</v>
       </c>
     </row>
     <row r="38">
@@ -1711,7 +1727,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1720,17 +1736,21 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Fabricação de produtos de madeira, cortiça e material trançado, exceto móveis</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>Fabricação de produtos de minerais não-metálicos</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="H38" t="n">
-        <v>846087444</v>
+        <v>41733548</v>
       </c>
     </row>
     <row r="39">
@@ -1745,7 +1765,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1754,21 +1774,17 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>231</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Fabricação de produtos de madeira, cortiça e material trançado, exceto móveis</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+          <t>Fabricação de vidro e de produtos do vidro</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>10095</v>
+        <v>29674847</v>
       </c>
     </row>
     <row r="40">
@@ -1783,7 +1799,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1792,17 +1808,21 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>231</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Fabricação de celulose, papel e produtos de papel</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>Fabricação de vidro e de produtos do vidro</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="H40" t="n">
-        <v>265729188</v>
+        <v>735340</v>
       </c>
     </row>
     <row r="41">
@@ -1817,7 +1837,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1826,21 +1846,17 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Fabricação de celulose, papel e produtos de papel</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+          <t>Metalurgia</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>1122289</v>
+        <v>116116323</v>
       </c>
     </row>
     <row r="42">
@@ -1855,7 +1871,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1864,17 +1880,17 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>244</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Impressão e reprodução de gravações</t>
+          <t>Metalurgia dos metais não-ferrosos</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>69860</v>
+        <v>292899356</v>
       </c>
     </row>
     <row r="43">
@@ -1889,7 +1905,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1898,17 +1914,21 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>244</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Fabricação de produtos químicos</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>Metalurgia dos metais não-ferrosos</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="H43" t="n">
-        <v>1708012221</v>
+        <v>740419</v>
       </c>
     </row>
     <row r="44">
@@ -1923,7 +1943,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1932,17 +1952,17 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>245</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Fabricação de fibras artificiais e sintéticas</t>
+          <t>Fundição</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>973656</v>
+        <v>390749</v>
       </c>
     </row>
     <row r="45">
@@ -1957,7 +1977,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1966,17 +1986,17 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Fabricação de produtos farmoquímicos e farmacêuticos</t>
+          <t>Fabricação de produtos de metal, exceto máquinas e equipamentos</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>167485853</v>
+        <v>137780447</v>
       </c>
     </row>
     <row r="46">
@@ -1991,7 +2011,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2000,17 +2020,21 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Fabricação de produtos de borracha</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
+          <t>Fabricação de produtos de metal, exceto máquinas e equipamentos</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="H46" t="n">
-        <v>410264949</v>
+        <v>4732614</v>
       </c>
     </row>
     <row r="47">
@@ -2025,7 +2049,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2034,21 +2058,17 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>255</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Fabricação de produtos de borracha</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+          <t>Fabricação de equipamento bélico pesado, armas e munições</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>31566259</v>
+        <v>321050690</v>
       </c>
     </row>
     <row r="48">
@@ -2063,7 +2083,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2072,17 +2092,17 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>261</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Fabricação de produtos de material plástico</t>
+          <t>Fabricação de componentes eletrônicos</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>103016827</v>
+        <v>37672137</v>
       </c>
     </row>
     <row r="49">
@@ -2097,7 +2117,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2106,12 +2126,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>261</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Fabricação de produtos de material plástico</t>
+          <t>Fabricação de componentes eletrônicos</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2120,7 +2140,7 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>25120646</v>
+        <v>237986</v>
       </c>
     </row>
     <row r="50">
@@ -2135,7 +2155,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2144,17 +2164,17 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>262</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Fabricação de produtos de minerais não-metálicos</t>
+          <t>Fabricação de equipamentos de informática e periféricos</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>507250349</v>
+        <v>91687713</v>
       </c>
     </row>
     <row r="51">
@@ -2169,7 +2189,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2178,12 +2198,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>262</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Fabricação de produtos de minerais não-metálicos</t>
+          <t>Fabricação de equipamentos de informática e periféricos</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2192,7 +2212,7 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>41733548</v>
+        <v>16985646</v>
       </c>
     </row>
     <row r="52">
@@ -2207,7 +2227,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2216,17 +2236,17 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>263</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Fabricação de vidro e de produtos do vidro</t>
+          <t>Fabricação de equipamentos de comunicação</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>29674847</v>
+        <v>8037965</v>
       </c>
     </row>
     <row r="53">
@@ -2241,7 +2261,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2250,12 +2270,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>263</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Fabricação de vidro e de produtos do vidro</t>
+          <t>Fabricação de equipamentos de comunicação</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2264,7 +2284,7 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>735340</v>
+        <v>55631217</v>
       </c>
     </row>
     <row r="54">
@@ -2279,7 +2299,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2288,17 +2308,17 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>264</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Metalurgia</t>
+          <t>Fabricação de aparelhos de recepção, reprodução, gravação e amplificação de áudio e vídeo</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>116116323</v>
+        <v>2114339</v>
       </c>
     </row>
     <row r="55">
@@ -2313,7 +2333,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2322,17 +2342,21 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>264</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Metalurgia dos metais não-ferrosos</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>Fabricação de aparelhos de recepção, reprodução, gravação e amplificação de áudio e vídeo</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="H55" t="n">
-        <v>292899356</v>
+        <v>36905890</v>
       </c>
     </row>
     <row r="56">
@@ -2347,7 +2371,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2356,21 +2380,17 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>265</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Metalurgia dos metais não-ferrosos</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+          <t>Fabricação de aparelhos e instrumentos de medida, teste e controle; cronômetros e relógios</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>740419</v>
+        <v>18316525</v>
       </c>
     </row>
     <row r="57">
@@ -2385,7 +2405,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2394,17 +2414,21 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>265</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Fundição</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
+          <t>Fabricação de aparelhos e instrumentos de medida, teste e controle; cronômetros e relógios</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="H57" t="n">
-        <v>390749</v>
+        <v>159033147</v>
       </c>
     </row>
     <row r="58">
@@ -2419,7 +2443,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2428,17 +2452,17 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>266</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Fabricação de produtos de metal, exceto máquinas e equipamentos</t>
+          <t>Fabricação de aparelhos eletromédicos e eletroterapêuticos e equipamentos de irradiação</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>137780447</v>
+        <v>17924801</v>
       </c>
     </row>
     <row r="59">
@@ -2453,7 +2477,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2462,21 +2486,17 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>267</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Fabricação de produtos de metal, exceto máquinas e equipamentos</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+          <t>Fabricação de equipamentos e instrumentos ópticos, fotográficos e cinematográficos</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>4732614</v>
+        <v>11414903</v>
       </c>
     </row>
     <row r="60">
@@ -2491,7 +2511,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2500,17 +2520,17 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>268</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Fabricação de equipamento bélico pesado, armas e munições</t>
+          <t>Fabricação de mídias virgens, magnéticas e ópticas</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>321050690</v>
+        <v>1931589</v>
       </c>
     </row>
     <row r="61">
@@ -2525,7 +2545,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2534,17 +2554,17 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Fabricação de componentes eletrônicos</t>
+          <t>Fabricação de máquinas, aparelhos e materiais elétricos</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>37672137</v>
+        <v>661957586</v>
       </c>
     </row>
     <row r="62">
@@ -2559,7 +2579,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2568,12 +2588,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Fabricação de componentes eletrônicos</t>
+          <t>Fabricação de máquinas, aparelhos e materiais elétricos</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2582,7 +2602,7 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>237986</v>
+        <v>374572647</v>
       </c>
     </row>
     <row r="63">
@@ -2597,7 +2617,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2606,17 +2626,17 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>272</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Fabricação de equipamentos de informática e periféricos</t>
+          <t>Fabricação de pilhas, baterias e acumuladores elétricos</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
-        <v>91687713</v>
+        <v>274783</v>
       </c>
     </row>
     <row r="64">
@@ -2631,7 +2651,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2640,12 +2660,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>272</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Fabricação de equipamentos de informática e periféricos</t>
+          <t>Fabricação de pilhas, baterias e acumuladores elétricos</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2654,7 +2674,7 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>16985646</v>
+        <v>3723880</v>
       </c>
     </row>
     <row r="65">
@@ -2669,7 +2689,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2678,17 +2698,17 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>273</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Fabricação de equipamentos de comunicação</t>
+          <t>Fabricação de equipamentos para distribuição e controle de energia elétrica</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>8037965</v>
+        <v>35624671</v>
       </c>
     </row>
     <row r="66">
@@ -2703,7 +2723,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2712,12 +2732,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>273</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Fabricação de equipamentos de comunicação</t>
+          <t>Fabricação de equipamentos para distribuição e controle de energia elétrica</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2726,7 +2746,7 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>55631217</v>
+        <v>19654748</v>
       </c>
     </row>
     <row r="67">
@@ -2741,7 +2761,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2750,17 +2770,17 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>274</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Fabricação de aparelhos de recepção, reprodução, gravação e amplificação de áudio e vídeo</t>
+          <t>Fabricação de lâmpadas e outros equipamentos de iluminação</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
-        <v>2114339</v>
+        <v>1348539</v>
       </c>
     </row>
     <row r="68">
@@ -2775,7 +2795,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2784,12 +2804,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>274</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Fabricação de aparelhos de recepção, reprodução, gravação e amplificação de áudio e vídeo</t>
+          <t>Fabricação de lâmpadas e outros equipamentos de iluminação</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2798,7 +2818,7 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>36905890</v>
+        <v>2559564</v>
       </c>
     </row>
     <row r="69">
@@ -2813,7 +2833,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2822,17 +2842,17 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>275</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Fabricação de aparelhos e instrumentos de medida, teste e controle; cronômetros e relógios</t>
+          <t>Fabricação de eletrodomésticos</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>18316525</v>
+        <v>4621986</v>
       </c>
     </row>
     <row r="70">
@@ -2847,7 +2867,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2856,12 +2876,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>275</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Fabricação de aparelhos e instrumentos de medida, teste e controle; cronômetros e relógios</t>
+          <t>Fabricação de eletrodomésticos</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2870,7 +2890,7 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>159033147</v>
+        <v>594268</v>
       </c>
     </row>
     <row r="71">
@@ -2885,7 +2905,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2894,17 +2914,17 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>279</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Fabricação de aparelhos eletromédicos e eletroterapêuticos e equipamentos de irradiação</t>
+          <t>Fabricação de equipamentos e aparelhos elétricos não especificados anteriormente</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>17924801</v>
+        <v>16471391</v>
       </c>
     </row>
     <row r="72">
@@ -2919,7 +2939,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2928,17 +2948,21 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>279</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Fabricação de equipamentos e instrumentos ópticos, fotográficos e cinematográficos</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr"/>
+          <t>Fabricação de equipamentos e aparelhos elétricos não especificados anteriormente</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="H72" t="n">
-        <v>11414903</v>
+        <v>81227468</v>
       </c>
     </row>
     <row r="73">
@@ -2953,7 +2977,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2962,17 +2986,17 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Fabricação de mídias virgens, magnéticas e ópticas</t>
+          <t>Fabricação de máquinas e equipamentos</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>1931589</v>
+        <v>2443802903</v>
       </c>
     </row>
     <row r="74">
@@ -2987,7 +3011,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2996,17 +3020,21 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Fabricação de máquinas, aparelhos e materiais elétricos</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr"/>
+          <t>Fabricação de máquinas e equipamentos</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="H74" t="n">
-        <v>661957586</v>
+        <v>546420832</v>
       </c>
     </row>
     <row r="75">
@@ -3021,7 +3049,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3030,21 +3058,17 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Fabricação de máquinas, aparelhos e materiais elétricos</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+          <t>Fabricação de veículos automotores, reboques e carrocerias</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>374572647</v>
+        <v>46357881</v>
       </c>
     </row>
     <row r="76">
@@ -3059,7 +3083,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3068,17 +3092,17 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>293</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Fabricação de pilhas, baterias e acumuladores elétricos</t>
+          <t>Fabricação de cabines, carrocerias e reboques para veículos automotores</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>274783</v>
+        <v>4124432</v>
       </c>
     </row>
     <row r="77">
@@ -3093,7 +3117,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3102,21 +3126,17 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>294</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Fabricação de pilhas, baterias e acumuladores elétricos</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+          <t>Fabricação de peças e acessórios para veículos automotores</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>3723880</v>
+        <v>775589519</v>
       </c>
     </row>
     <row r="78">
@@ -3131,7 +3151,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3140,17 +3160,21 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>294</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Fabricação de equipamentos para distribuição e controle de energia elétrica</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr"/>
+          <t>Fabricação de peças e acessórios para veículos automotores</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="H78" t="n">
-        <v>35624671</v>
+        <v>15378566</v>
       </c>
     </row>
     <row r="79">
@@ -3165,7 +3189,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3174,21 +3198,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>301</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Fabricação de equipamentos para distribuição e controle de energia elétrica</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+          <t>Construção de embarcações</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>19654748</v>
+        <v>44319777</v>
       </c>
     </row>
     <row r="80">
@@ -3203,7 +3223,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3212,17 +3232,17 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>303</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Fabricação de lâmpadas e outros equipamentos de iluminação</t>
+          <t>Fabricação de veículos ferroviários</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>1348539</v>
+        <v>31040760</v>
       </c>
     </row>
     <row r="81">
@@ -3237,7 +3257,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3246,12 +3266,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Fabricação de lâmpadas e outros equipamentos de iluminação</t>
+          <t>Fabricação de aeronaves</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3260,7 +3280,7 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>2559564</v>
+        <v>3006282021</v>
       </c>
     </row>
     <row r="82">
@@ -3275,7 +3295,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3284,17 +3304,17 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>309</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Fabricação de eletrodomésticos</t>
+          <t>Fabricação de equipamentos de transporte não especificados anteriormente</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>4621986</v>
+        <v>29090212</v>
       </c>
     </row>
     <row r="83">
@@ -3309,7 +3329,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3318,21 +3338,17 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>310</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Fabricação de eletrodomésticos</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+          <t>Fabricação de móveis</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>594268</v>
+        <v>223105070</v>
       </c>
     </row>
     <row r="84">
@@ -3347,7 +3363,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3356,17 +3372,21 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>310</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Fabricação de equipamentos e aparelhos elétricos não especificados anteriormente</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr"/>
+          <t>Fabricação de móveis</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="H84" t="n">
-        <v>16471391</v>
+        <v>22944748</v>
       </c>
     </row>
     <row r="85">
@@ -3381,7 +3401,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3390,21 +3410,17 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>321</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Fabricação de equipamentos e aparelhos elétricos não especificados anteriormente</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+          <t>Fabricação de artigos de joalheria, bijuteria e semelhantes</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>81227468</v>
+        <v>88723824</v>
       </c>
     </row>
     <row r="86">
@@ -3419,7 +3435,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3428,17 +3444,17 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>322</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Fabricação de máquinas e equipamentos</t>
+          <t>Fabricação de instrumentos musicais</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>2443802903</v>
+        <v>1870752</v>
       </c>
     </row>
     <row r="87">
@@ -3453,7 +3469,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3462,21 +3478,17 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>323</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Fabricação de máquinas e equipamentos</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+          <t>Fabricação de artefatos para pesca e esporte</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
-        <v>546420832</v>
+        <v>3115478</v>
       </c>
     </row>
     <row r="88">
@@ -3491,7 +3503,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3500,17 +3512,17 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>324</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Fabricação de veículos automotores, reboques e carrocerias</t>
+          <t>Fabricação de brinquedos e jogos recreativos</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>46357881</v>
+        <v>3613863</v>
       </c>
     </row>
     <row r="89">
@@ -3525,7 +3537,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3534,17 +3546,17 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>325</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Fabricação de cabines, carrocerias e reboques para veículos automotores</t>
+          <t>Fabricação de instrumentos e materiais para uso médico e odontológico e de artigos ópticos</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>4124432</v>
+        <v>169681304</v>
       </c>
     </row>
     <row r="90">
@@ -3559,7 +3571,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3568,17 +3580,21 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>325</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Fabricação de peças e acessórios para veículos automotores</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr"/>
+          <t>Fabricação de instrumentos e materiais para uso médico e odontológico e de artigos ópticos</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="H90" t="n">
-        <v>775589519</v>
+        <v>1519569</v>
       </c>
     </row>
     <row r="91">
@@ -3593,7 +3609,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3602,21 +3618,17 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>329</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Fabricação de peças e acessórios para veículos automotores</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+          <t>Fabricação de produtos diversos</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
-        <v>15378566</v>
+        <v>53854746</v>
       </c>
     </row>
     <row r="92">
@@ -3631,7 +3643,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3640,17 +3652,17 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>531</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Construção de embarcações</t>
+          <t>Atividades de Correio</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>44319777</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93">
@@ -3665,7 +3677,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3674,17 +3686,17 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>58</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Fabricação de veículos ferroviários</t>
+          <t>Edição e edição integrada à impressão</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>31040760</v>
+        <v>10475952</v>
       </c>
     </row>
     <row r="94">
@@ -3699,7 +3711,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3708,21 +3720,17 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>591</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Fabricação de aeronaves</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+          <t>Atividades cinematográficas, produção de vídeos e de programas de televisão</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>3006282021</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="95">
@@ -3737,7 +3745,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3746,17 +3754,17 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>742</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Fabricação de equipamentos de transporte não especificados anteriormente</t>
+          <t>Atividades fotográficas e similares</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
-        <v>29090212</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96">
@@ -3771,7 +3779,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3780,17 +3788,17 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>900</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Fabricação de móveis</t>
+          <t>Atividades artísticas, criativas e de espetáculos</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>223105070</v>
+        <v>128097510</v>
       </c>
     </row>
     <row r="97">
@@ -3805,7 +3813,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3814,857 +3822,17 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>910</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Fabricação de móveis</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+          <t>Atividades ligadas ao patrimônio cultural e ambiental</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>22944748</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Ordem 30/07</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Tarifa de 10+40%</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Vigente</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>321</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Fabricação de artigos de joalheria, bijuteria e semelhantes</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="n">
-        <v>88723824</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Ordem 30/07</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Tarifa de 10+40%</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Vigente</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Fabricação de instrumentos musicais</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="n">
-        <v>1870752</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Ordem 30/07</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Tarifa de 10+40%</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Vigente</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>323</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Fabricação de artefatos para pesca e esporte</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="n">
-        <v>3115478</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Ordem 30/07</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Tarifa de 10+40%</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Vigente</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Fabricação de brinquedos e jogos recreativos</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="n">
-        <v>3613863</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Ordem 30/07</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Tarifa de 10+40%</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Vigente</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>325</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Fabricação de instrumentos e materiais para uso médico e odontológico e de artigos ópticos</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="n">
-        <v>169681304</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Ordem 30/07</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Tarifa de 10+40%</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Vigente</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>325</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Fabricação de instrumentos e materiais para uso médico e odontológico e de artigos ópticos</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="H103" t="n">
-        <v>1519569</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Ordem 30/07</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Tarifa de 10+40%</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Vigente</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Fabricação de produtos diversos</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="n">
-        <v>53854746</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Ordem 30/07</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Tarifa de 10+40%</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Vigente</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Atividades de Correio</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Ordem 30/07</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Tarifa de 10+40%</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Vigente</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Edição e edição integrada à impressão</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="n">
-        <v>10475952</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Ordem 30/07</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Tarifa de 10+40%</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Vigente</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Atividades cinematográficas, produção de vídeos e de programas de televisão</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Ordem 30/07</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Tarifa de 10+40%</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Vigente</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>742</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Atividades fotográficas e similares</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Ordem 30/07</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Tarifa de 10+40%</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Vigente</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>900</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Atividades artísticas, criativas e de espetáculos</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="n">
-        <v>128097510</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Ordem 30/07</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Tarifa de 10+40%</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Vigente</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>910</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Atividades ligadas ao patrimônio cultural e ambiental</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="n">
         <v>1185193</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Seção 232</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>10% (base) para veículos antigos ou conteúdo americano a 25%</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Em análise</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Fabricação de veículos automotores, reboques e carrocerias</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="n">
-        <v>6904822</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Seção 232</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>25% (atual) a 50%</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Em análise</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Metalurgia</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="n">
-        <v>4125645250</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Seção 232</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>25% (atual) a 50%</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Em análise</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Metalurgia</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="H113" t="n">
-        <v>7215641</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Seção 232</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>25% (atual) a 50%</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Em análise</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Metalurgia dos metais não-ferrosos</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="n">
-        <v>407700816</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Seção 232</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>25% (atual) a 50%</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Em análise</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Metalurgia dos metais não-ferrosos</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="H115" t="n">
-        <v>29089</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Seção 232</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>25% (atual) a 50%</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Em análise</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Fundição</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="n">
-        <v>5084384</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Seção 232</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>25% (atual) a 50%</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Em análise</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Fabricação de produtos de metal, exceto máquinas e equipamentos</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="n">
-        <v>241780267</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Seção 232</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>25% (atual) a 50%</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Em análise</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Fabricação de produtos de metal, exceto máquinas e equipamentos</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="H118" t="n">
-        <v>9341654</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Seção 232</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>25% (atual) a 50%</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Em análise</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>275</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Fabricação de eletrodomésticos</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="n">
-        <v>2387618</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Seção 232</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>25% (atual) a 50%</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Em análise</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>275</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Fabricação de eletrodomésticos</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="H120" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Seção 232</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>25% (atual) a 50%</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Em análise</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Fabricação de máquinas e equipamentos</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="n">
-        <v>1178991</v>
       </c>
     </row>
   </sheetData>
